--- a/IMDB Movie Ratings.xlsx
+++ b/IMDB Movie Ratings.xlsx
@@ -5533,12 +5533,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Jai Bhim</t>
+          <t>Pirates of the Caribbean: The Curse of the Black Pearl</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -5555,12 +5555,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Pirates of the Caribbean: The Curse of the Black Pearl</t>
+          <t>Jai Bhim</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
